--- a/downloaded_files/EECS102_Tutorial-35886.xlsx
+++ b/downloaded_files/EECS102_Tutorial-35886.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -148,6 +148,24 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman Ramadan Rashad Elazab Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250178</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن سيد عبدالرحيم احمد عطية</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdul Rahman Sayed Abdul Rahim Ahmed Attia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250183</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على محمود نجاح مكاوى خلف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Mahmoud Najah Makkawi Khalaf</x:t>
   </x:si>
   <x:si>
     <x:t>1240100</x:t>
@@ -362,7 +380,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -662,7 +680,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1169,7 +1187,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6701496875</x:v>
+        <x:v>45921.6074469097</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1201,7 +1219,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.5503029745</x:v>
+        <x:v>45921.6629173264</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1233,7 +1251,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.5512697106</x:v>
+        <x:v>45907.6701496875</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1265,7 +1283,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6670297106</x:v>
+        <x:v>45914.5503029745</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1297,7 +1315,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.6578888889</x:v>
+        <x:v>45914.5512697106</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1329,7 +1347,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6723933218</x:v>
+        <x:v>45907.6670297106</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1361,7 +1379,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.5437917014</x:v>
+        <x:v>45914.6578888889</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1393,7 +1411,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.5527487616</x:v>
+        <x:v>45907.6723933218</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1425,7 +1443,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.6573489236</x:v>
+        <x:v>45914.5437917014</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1457,7 +1475,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.536465544</x:v>
+        <x:v>45914.5527487616</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1489,7 +1507,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.5428112616</x:v>
+        <x:v>45914.6573489236</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1506,6 +1524,70 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45914.536465544</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45914.5428112616</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS102_Tutorial-35886.xlsx
+++ b/downloaded_files/EECS102_Tutorial-35886.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -67,6 +67,15 @@
   </x:si>
   <x:si>
     <x:t>Basel Mahmoud Younes Ahmed Mouhamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250169</x:t>
+  </x:si>
+  <x:si>
+    <x:t>تسنيم رضا محمد عبدالحميد السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tasneem Reda Mohamed Abdel Hamid El Sayed</x:t>
   </x:si>
   <x:si>
     <x:t>1240044</x:t>
@@ -380,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -680,7 +689,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -899,7 +908,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6666383449</x:v>
+        <x:v>45922.3727138889</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -931,7 +940,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45914.6601823727</x:v>
+        <x:v>45907.6666383449</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -963,7 +972,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45914.658140625</x:v>
+        <x:v>45914.6601823727</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -995,7 +1004,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45914.5370814815</x:v>
+        <x:v>45914.658140625</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1027,7 +1036,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45914.6588234954</x:v>
+        <x:v>45914.5370814815</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1059,7 +1068,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45914.5422490741</x:v>
+        <x:v>45914.6588234954</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1091,7 +1100,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45914.5443251968</x:v>
+        <x:v>45914.5422490741</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1123,7 +1132,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.660355787</x:v>
+        <x:v>45914.5443251968</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1155,7 +1164,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.6374003819</x:v>
+        <x:v>45914.660355787</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1187,7 +1196,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45921.6074469097</x:v>
+        <x:v>45914.6374003819</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1219,7 +1228,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45921.6629173264</x:v>
+        <x:v>45921.6074469097</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1251,7 +1260,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6701496875</x:v>
+        <x:v>45921.6629173264</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1283,7 +1292,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.5503029745</x:v>
+        <x:v>45907.6701496875</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1315,7 +1324,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.5512697106</x:v>
+        <x:v>45914.5503029745</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1347,7 +1356,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6670297106</x:v>
+        <x:v>45914.5512697106</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1379,7 +1388,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.6578888889</x:v>
+        <x:v>45907.6670297106</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1411,7 +1420,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6723933218</x:v>
+        <x:v>45914.6578888889</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1443,7 +1452,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.5437917014</x:v>
+        <x:v>45907.6723933218</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1475,7 +1484,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.5527487616</x:v>
+        <x:v>45914.5437917014</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1507,7 +1516,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.6573489236</x:v>
+        <x:v>45914.5527487616</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1539,7 +1548,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45914.536465544</x:v>
+        <x:v>45914.6573489236</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1571,7 +1580,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45914.5428112616</x:v>
+        <x:v>45914.536465544</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1588,6 +1597,38 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45914.5428112616</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS102_Tutorial-35886.xlsx
+++ b/downloaded_files/EECS102_Tutorial-35886.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -94,6 +94,15 @@
   </x:si>
   <x:si>
     <x:t>Jody Emad Fathy Elsayed Selyman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250173</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد سعد محمد موسى احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ziad Saad</x:t>
   </x:si>
   <x:si>
     <x:t>1240319</x:t>
@@ -389,7 +398,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -689,7 +698,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1004,7 +1013,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45914.658140625</x:v>
+        <x:v>45923.4748417824</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1036,7 +1045,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45914.5370814815</x:v>
+        <x:v>45914.658140625</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1068,7 +1077,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45914.6588234954</x:v>
+        <x:v>45914.5370814815</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1100,7 +1109,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45914.5422490741</x:v>
+        <x:v>45914.6588234954</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1132,7 +1141,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.5443251968</x:v>
+        <x:v>45914.5422490741</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1164,7 +1173,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.660355787</x:v>
+        <x:v>45914.5443251968</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1196,7 +1205,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.6374003819</x:v>
+        <x:v>45914.660355787</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1228,7 +1237,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45921.6074469097</x:v>
+        <x:v>45914.6374003819</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1260,7 +1269,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45921.6629173264</x:v>
+        <x:v>45921.6074469097</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1292,7 +1301,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6701496875</x:v>
+        <x:v>45921.6629173264</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1324,7 +1333,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.5503029745</x:v>
+        <x:v>45907.6701496875</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1356,7 +1365,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.5512697106</x:v>
+        <x:v>45914.5503029745</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1388,7 +1397,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6670297106</x:v>
+        <x:v>45914.5512697106</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1420,7 +1429,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.6578888889</x:v>
+        <x:v>45907.6670297106</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1452,7 +1461,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6723933218</x:v>
+        <x:v>45914.6578888889</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1484,7 +1493,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.5437917014</x:v>
+        <x:v>45907.6723933218</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1516,7 +1525,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.5527487616</x:v>
+        <x:v>45914.5437917014</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1548,7 +1557,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45914.6573489236</x:v>
+        <x:v>45914.5527487616</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1580,7 +1589,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45914.536465544</x:v>
+        <x:v>45914.6573489236</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1612,7 +1621,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45914.5428112616</x:v>
+        <x:v>45914.536465544</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1629,6 +1638,38 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45914.5428112616</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS102_Tutorial-35886.xlsx
+++ b/downloaded_files/EECS102_Tutorial-35886.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -211,15 +211,6 @@
   </x:si>
   <x:si>
     <x:t>amr sabry abdullatif ibrahim</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240181</x:t>
-  </x:si>
-  <x:si>
-    <x:t>كنزى محمد احمد عبد القادر عاشور</x:t>
-  </x:si>
-  <x:si>
-    <x:t>kenzy mohamed ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1240124</x:t>
@@ -398,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -698,7 +689,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1429,7 +1420,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6670297106</x:v>
+        <x:v>45914.6578888889</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1461,7 +1452,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.6578888889</x:v>
+        <x:v>45907.6723933218</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1493,7 +1484,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6723933218</x:v>
+        <x:v>45914.5437917014</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1525,7 +1516,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.5437917014</x:v>
+        <x:v>45914.5527487616</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1557,7 +1548,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45914.5527487616</x:v>
+        <x:v>45914.6573489236</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1589,7 +1580,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45914.6573489236</x:v>
+        <x:v>45914.536465544</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1621,7 +1612,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45914.536465544</x:v>
+        <x:v>45914.5428112616</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1638,38 +1629,6 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20">
-      <x:c r="A29" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="E29" s="3">
-        <x:v>45914.5428112616</x:v>
-      </x:c>
-      <x:c r="F29" s="2" t="s"/>
-      <x:c r="G29" s="2" t="s"/>
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
-      <x:c r="J29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="L29" s="2" t="s"/>
-      <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="2" t="s"/>
-      <x:c r="O29" s="2" t="s"/>
-      <x:c r="P29" s="2" t="s"/>
-      <x:c r="Q29" s="2" t="s"/>
-      <x:c r="R29" s="2" t="s"/>
-      <x:c r="S29" s="2" t="s"/>
-      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS102_Tutorial-35886.xlsx
+++ b/downloaded_files/EECS102_Tutorial-35886.xlsx
@@ -177,6 +177,15 @@
     <x:t>Abdul Rahman Sayed Abdul Rahim Ahmed Attia</x:t>
   </x:si>
   <x:si>
+    <x:t>1240233</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن صابر على على حسب الله</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Saber Aly Aly Hassaballah</x:t>
+  </x:si>
+  <x:si>
     <x:t>4250183</x:t>
   </x:si>
   <x:si>
@@ -265,15 +274,6 @@
   </x:si>
   <x:si>
     <x:t>Yara Mohamed Tawfik Seleim Mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240167</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف احمد السيد احمد الشلقاني</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef ahmed elsayed ahmed metwaley</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1292,7 +1292,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45921.6629173264</x:v>
+        <x:v>45927.4723841782</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1324,7 +1324,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6701496875</x:v>
+        <x:v>45921.6629173264</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1356,7 +1356,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.5503029745</x:v>
+        <x:v>45907.6701496875</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1388,7 +1388,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.5512697106</x:v>
+        <x:v>45914.5503029745</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1420,7 +1420,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.6578888889</x:v>
+        <x:v>45914.5512697106</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1452,7 +1452,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6723933218</x:v>
+        <x:v>45914.6578888889</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1484,7 +1484,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.5437917014</x:v>
+        <x:v>45907.6723933218</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1516,7 +1516,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.5527487616</x:v>
+        <x:v>45914.5437917014</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1548,7 +1548,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45914.6573489236</x:v>
+        <x:v>45914.5527487616</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1580,7 +1580,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45914.536465544</x:v>
+        <x:v>45914.6573489236</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1612,7 +1612,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45914.5428112616</x:v>
+        <x:v>45914.536465544</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>

--- a/downloaded_files/EECS102_Tutorial-35886.xlsx
+++ b/downloaded_files/EECS102_Tutorial-35886.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -265,6 +265,15 @@
   </x:si>
   <x:si>
     <x:t>Mostafa Tarek Abdelfattah Hassan Mahmoud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230268</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مهند ايهاب محمد سعيد عباس</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOHANAD EHAB MOHAMED SAID ABBAS</x:t>
   </x:si>
   <x:si>
     <x:t>1240276</x:t>
@@ -389,7 +398,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -689,7 +698,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1612,7 +1621,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45914.536465544</x:v>
+        <x:v>45909.4222365741</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1629,6 +1638,38 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45914.536465544</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS102_Tutorial-35886.xlsx
+++ b/downloaded_files/EECS102_Tutorial-35886.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -265,15 +265,6 @@
   </x:si>
   <x:si>
     <x:t>Mostafa Tarek Abdelfattah Hassan Mahmoud</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230268</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مهند ايهاب محمد سعيد عباس</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MOHANAD EHAB MOHAMED SAID ABBAS</x:t>
   </x:si>
   <x:si>
     <x:t>1240276</x:t>
@@ -398,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -698,7 +689,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1621,7 +1612,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.4222365741</x:v>
+        <x:v>45914.536465544</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1638,38 +1629,6 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20">
-      <x:c r="A29" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="E29" s="3">
-        <x:v>45914.536465544</x:v>
-      </x:c>
-      <x:c r="F29" s="2" t="s"/>
-      <x:c r="G29" s="2" t="s"/>
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
-      <x:c r="J29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="L29" s="2" t="s"/>
-      <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="2" t="s"/>
-      <x:c r="O29" s="2" t="s"/>
-      <x:c r="P29" s="2" t="s"/>
-      <x:c r="Q29" s="2" t="s"/>
-      <x:c r="R29" s="2" t="s"/>
-      <x:c r="S29" s="2" t="s"/>
-      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS102_Tutorial-35886.xlsx
+++ b/downloaded_files/EECS102_Tutorial-35886.xlsx
@@ -60,6 +60,15 @@
     <x:t>Ahmed Yasser Ramadan Ibrahim</x:t>
   </x:si>
   <x:si>
+    <x:t>1240030</x:t>
+  </x:si>
+  <x:si>
+    <x:t>اواب تامر ذكريا المغازى الشهاوى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ِAwab Tamer Zakaria</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240033</x:t>
   </x:si>
   <x:si>
@@ -112,15 +121,6 @@
   </x:si>
   <x:si>
     <x:t>Serageldeen Atef Gamal Mohamed Othman</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240069</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سلمى الحسيني محمد عادل محمد الحسيني</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Salma Elhoseny mohammed Adel Elhoseny</x:t>
   </x:si>
   <x:si>
     <x:t>1240073</x:t>
@@ -876,7 +876,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6667315625</x:v>
+        <x:v>45907.6651261574</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -908,7 +908,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45922.3727138889</x:v>
+        <x:v>45907.6667315625</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -940,7 +940,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6666383449</x:v>
+        <x:v>45922.3727138889</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -972,7 +972,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45914.6601823727</x:v>
+        <x:v>45907.6666383449</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1004,7 +1004,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45923.4748417824</x:v>
+        <x:v>45914.6601823727</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1036,7 +1036,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45914.658140625</x:v>
+        <x:v>45923.4748417824</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1068,7 +1068,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45914.5370814815</x:v>
+        <x:v>45914.658140625</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>

--- a/downloaded_files/EECS102_Tutorial-35886.xlsx
+++ b/downloaded_files/EECS102_Tutorial-35886.xlsx
@@ -174,7 +174,7 @@
     <x:t>عبدالرحمن سيد عبدالرحيم احمد عطية</x:t>
   </x:si>
   <x:si>
-    <x:t>Abdul Rahman Sayed Abdul Rahim Ahmed Attia</x:t>
+    <x:t>Abdelrahman Sayed Abdelraheem Ahmed Attia</x:t>
   </x:si>
   <x:si>
     <x:t>1240233</x:t>
